--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -89,9 +89,6 @@
     <t>2010-02-01</t>
   </si>
   <si>
-    <t>DZHW-Absolventenpanel 2009 - erste Welle (trad. Studierende)</t>
-  </si>
-  <si>
     <t>DZHW-Absolventenpanel 2009 - erste Welle (Bachelor)</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Hochschulabsolvent(inn)en, die im Wintersemester 2008/2009 oder im Sommersemester 2009 ihren ersten berufsqualifizierenden Studienabschluss an einer staatlich anerkannten Hochschule in der Bundesrepublik Deutschland erworben haben (mit Ausnahme der Absolvent(inn)en von Bundeswehrhochschulen, Verwaltungsfachhochschulen sowie von dualen, Teilzeit- und Fernstudiengängen)</t>
+  </si>
+  <si>
+    <t>DZHW-Absolventenpanel 2009 - erste Welle (Absolvent(inn)en traditioneller Studiengänge)</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,21 +640,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
@@ -676,21 +676,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="surveys" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>number</t>
   </si>
@@ -102,6 +102,22 @@
   </si>
   <si>
     <t>DZHW-Absolventenpanel 2009 - erste Welle (Absolvent(inn)en traditioneller Studiengänge)</t>
+  </si>
+  <si>
+    <t>DZHW Graduate Panel 2009 - first wave (graduates of a traditional courses of study)</t>
+  </si>
+  <si>
+    <t>DZHW Graduate Panel 2009 - first wave (Bachelor)</t>
+  </si>
+  <si>
+    <t>Higher eduaction graduates,  who completed their first professionally recognised degree in the winter semester of 2008-09 or in the summer semester of 2009 at a state approved institution of higher education in the Federal Republic of Germany (with the exception of graduates of German Armed Forces universities, technical universities of administration, part time or a distance learning degree programme)</t>
+  </si>
+  <si>
+    <t>stratified cluster sample</t>
+  </si>
+  <si>
+    <t>Standardised 
+self-administered survey</t>
   </si>
 </sst>
 </file>
@@ -112,13 +128,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -155,6 +164,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,26 +191,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -569,18 +587,18 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
     <col min="8" max="8" width="64.42578125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
@@ -635,39 +653,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="192" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="7">
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6">
         <v>24848</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>5611</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>22.6</v>
       </c>
     </row>
@@ -678,32 +704,40 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="7">
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="6">
         <v>27702</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>4883</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>17.600000000000001</v>
       </c>
     </row>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>number</t>
   </si>
@@ -118,6 +118,12 @@
   <si>
     <t>Standardised 
 self-administered survey</t>
+  </si>
+  <si>
+    <t>annotations.de</t>
+  </si>
+  <si>
+    <t>annotations.en</t>
   </si>
 </sst>
 </file>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,10 +612,11 @@
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +659,14 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="192" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -697,7 +710,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>number</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>annotations.en</t>
+  </si>
+  <si>
+    <t>wave</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -217,6 +220,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -590,167 +599,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="64.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="1026" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="192" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="192" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>24848</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>5611</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>22.6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>27702</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>4883</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>17.600000000000001</v>
       </c>
     </row>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>number</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>wave</t>
+  </si>
+  <si>
+    <t>dataType.de</t>
+  </si>
+  <si>
+    <t>dataType.en</t>
+  </si>
+  <si>
+    <t>Quantitative Daten</t>
+  </si>
+  <si>
+    <t>Quantitative Data</t>
   </si>
 </sst>
 </file>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +638,7 @@
     <col min="17" max="1026" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,8 +690,14 @@
       <c r="Q1" t="s">
         <v>33</v>
       </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="192" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="192" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -725,8 +743,14 @@
       <c r="O2" s="6">
         <v>22.6</v>
       </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -771,6 +795,12 @@
       </c>
       <c r="O3" s="6">
         <v>17.600000000000001</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>number</t>
   </si>
@@ -89,31 +89,10 @@
     <t>2010-02-01</t>
   </si>
   <si>
-    <t>DZHW-Absolventenpanel 2009 - erste Welle (Bachelor)</t>
-  </si>
-  <si>
     <t>2011-01-31</t>
   </si>
   <si>
-    <t>geschichtete Klumpenstichprobe</t>
-  </si>
-  <si>
     <t>Hochschulabsolvent(inn)en, die im Wintersemester 2008/2009 oder im Sommersemester 2009 ihren ersten berufsqualifizierenden Studienabschluss an einer staatlich anerkannten Hochschule in der Bundesrepublik Deutschland erworben haben (mit Ausnahme der Absolvent(inn)en von Bundeswehrhochschulen, Verwaltungsfachhochschulen sowie von dualen, Teilzeit- und Fernstudiengängen)</t>
-  </si>
-  <si>
-    <t>DZHW-Absolventenpanel 2009 - erste Welle (Absolvent(inn)en traditioneller Studiengänge)</t>
-  </si>
-  <si>
-    <t>DZHW Graduate Panel 2009 - first wave (graduates of a traditional courses of study)</t>
-  </si>
-  <si>
-    <t>DZHW Graduate Panel 2009 - first wave (Bachelor)</t>
-  </si>
-  <si>
-    <t>Higher eduaction graduates,  who completed their first professionally recognised degree in the winter semester of 2008-09 or in the summer semester of 2009 at a state approved institution of higher education in the Federal Republic of Germany (with the exception of graduates of German Armed Forces universities, technical universities of administration, part time or a distance learning degree programme)</t>
-  </si>
-  <si>
-    <t>stratified cluster sample</t>
   </si>
   <si>
     <t>Standardised 
@@ -129,6 +108,68 @@
     <t>wave</t>
   </si>
   <si>
+    <t>2015-02-16</t>
+  </si>
+  <si>
+    <t>2015-10-02</t>
+  </si>
+  <si>
+    <t>2015-06-04</t>
+  </si>
+  <si>
+    <t>2015-07-15</t>
+  </si>
+  <si>
+    <t>2015-07-16</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>DZHW-Absolventenpanel 2009 - erste Welle</t>
+  </si>
+  <si>
+    <t>DZHW Graduate Panel 2009 - first wave</t>
+  </si>
+  <si>
+    <t>geschichtete Klumpenstichprobe (getrennt für Bachelorabsolvent(inn)en und Absolvent(inn)en traditioneller Studiengänge)</t>
+  </si>
+  <si>
+    <t>stratified cluster sample (separately for graduates of traditional courses of study and Bachelor
+graduates)</t>
+  </si>
+  <si>
+    <t>DZHW-Absolventenpanel 2009 - zweite Welle, Hauptbefragung</t>
+  </si>
+  <si>
+    <t>DZHW Graduate Panel 2009 - second wave, main survey</t>
+  </si>
+  <si>
+    <t>DZHW-Absolventenpanel 2009 - zweite Welle, Vertiefungsbefragung Promotion</t>
+  </si>
+  <si>
+    <t>DZHW Graduate Panel 2009 - second wave, in-depth survey "doctorate"</t>
+  </si>
+  <si>
+    <t>DZHW-Absolventenpanel 2009 - zweite Welle, Vertiefungsbefragung Mobilität</t>
+  </si>
+  <si>
+    <t>DZHW Graduate Panel 2009 - second wave, in-depth survey "regional mobility"</t>
+  </si>
+  <si>
+    <t>standardised online survey or self-administered
+survey</t>
+  </si>
+  <si>
+    <t>standardised online survey</t>
+  </si>
+  <si>
+    <t>standardisierte Online-Befragung bzw. postalische Befragung</t>
+  </si>
+  <si>
+    <t>standardisierte Online-Befragung</t>
+  </si>
+  <si>
     <t>dataType.de</t>
   </si>
   <si>
@@ -139,13 +180,22 @@
   </si>
   <si>
     <t>Quantitative Data</t>
+  </si>
+  <si>
+    <t>Hochschulabsolvent(inn)en, die im Wintersemester 2008/2009 oder im Sommersemester 2009 ihren ersten berufsqualifizierenden Studienabschluss an einer staatlich anerkannten Hochschule in der Bundesrepublik Deutschland erworben haben (mit Ausnahme der Absolvent(inn)en von Bundeswehrhochschulen, Verwaltungsfachhochschulen sowie von dualen, Teilzeit- und Fernstudiengängen) und die in der Hauptbefragung der zweiten Welle angegeben haben, dass sie nach ihrem Studienabschluss eine Promotion aufgenommen haben</t>
+  </si>
+  <si>
+    <t>Higher eduaction graduates,  who completed their first professionally recognised degree in the winter semester of 2008-09 or in the summer semester of 2009 at a state approved institution of higher education in the Federal Republic of Germany (with the exception of graduates of German Armed Forces universities, technical universities of administration, dual study programmes, part time or distance learning degree programmes)</t>
+  </si>
+  <si>
+    <t>Higher eduaction graduates,  who completed their first professionally recognised degree in the winter semester of 2008-09 or in the summer semester of 2009 at a state approved institution of higher education in the Federal Republic of Germany (with the exception of graduates of German Armed Forces universities, technical universities of administration, dual study programmes, part time or distance learning degree programmes) and who indicated in the main survey of the second wave that they have started a doctorate after their graduation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -192,6 +242,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,30 +270,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -611,24 +675,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="64.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
@@ -642,14 +706,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -685,122 +749,228 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="204" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="12">
+        <v>52550</v>
+      </c>
+      <c r="N2" s="12">
+        <v>10494</v>
+      </c>
+      <c r="O2" s="12">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="204" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9086</v>
+      </c>
+      <c r="N3" s="12">
+        <v>4755</v>
+      </c>
+      <c r="O3" s="12">
+        <v>52.3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1136</v>
+      </c>
+      <c r="N4" s="12">
+        <v>676</v>
+      </c>
+      <c r="O4" s="12">
+        <v>59.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="204" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="192" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="6">
-        <v>24848</v>
-      </c>
-      <c r="N2" s="6">
-        <v>5611</v>
-      </c>
-      <c r="O2" s="6">
-        <v>22.6</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="J5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="6">
-        <v>27702</v>
-      </c>
-      <c r="N3" s="6">
-        <v>4883</v>
-      </c>
-      <c r="O3" s="6">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
+      <c r="K5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="12">
+        <v>4755</v>
+      </c>
+      <c r="N5" s="12">
+        <v>2465</v>
+      </c>
+      <c r="O5" s="12">
+        <v>51.8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>number</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>fieldPeriod.end</t>
-  </si>
-  <si>
-    <t>population.de</t>
-  </si>
-  <si>
-    <t>population.en</t>
   </si>
   <si>
     <t>sample.de</t>
@@ -189,6 +183,24 @@
   </si>
   <si>
     <t>Higher eduaction graduates,  who completed their first professionally recognised degree in the winter semester of 2008-09 or in the summer semester of 2009 at a state approved institution of higher education in the Federal Republic of Germany (with the exception of graduates of German Armed Forces universities, technical universities of administration, dual study programmes, part time or distance learning degree programmes) and who indicated in the main survey of the second wave that they have started a doctorate after their graduation</t>
+  </si>
+  <si>
+    <t>population.description.de</t>
+  </si>
+  <si>
+    <t>population.description.en</t>
+  </si>
+  <si>
+    <t>population.title.de</t>
+  </si>
+  <si>
+    <t>population.title.en</t>
+  </si>
+  <si>
+    <t>Bachelorabsolvent(inn)en und Absolvent(inn)en traditioneller Studiengänge</t>
+  </si>
+  <si>
+    <t>graduates of traditional courses of study and Bachelor graduates</t>
   </si>
 </sst>
 </file>
@@ -270,7 +282,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -304,6 +316,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -675,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,10 +712,13 @@
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" style="1"/>
     <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="1026" width="10.7109375" customWidth="1"/>
+    <col min="17" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" customWidth="1"/>
+    <col min="22" max="22" width="24" customWidth="1"/>
+    <col min="23" max="1026" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -721,82 +737,88 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="204" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="204" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="12">
         <v>52550</v>
@@ -808,48 +830,54 @@
         <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="204" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="204" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="12">
         <v>9086</v>
@@ -861,48 +889,54 @@
         <v>52.3</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" s="12">
         <v>1136</v>
@@ -914,48 +948,54 @@
         <v>59.5</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="204" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="204" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" s="12">
         <v>4755</v>
@@ -967,10 +1007,16 @@
         <v>51.8</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -999,22 +1045,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/surveys/surveys.xlsx
+++ b/data/surveys/surveys.xlsx
@@ -200,7 +200,7 @@
     <t>Bachelorabsolvent(inn)en und Absolvent(inn)en traditioneller Studiengänge</t>
   </si>
   <si>
-    <t>graduates of traditional courses of study and Bachelor graduates</t>
+    <t>Graduates of Traditional Courses of Study and Bachelor Graduates</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:V5"/>
     </sheetView>
   </sheetViews>
